--- a/sputnik/personal/ee/211ee.xlsx
+++ b/sputnik/personal/ee/211ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,10 +39,19 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>Оплачены пени за просрочку оплаты за ЭЭ на 140 дн</t>
-  </si>
-  <si>
-    <t>нет данных</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -56,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +85,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -105,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,51 +151,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -210,7 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,7 +176,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,34 +183,20 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -562,400 +504,255 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F11:F15"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>42980</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1057</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43344</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2082</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>532</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="2">
+        <v>1085</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43232</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1656</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>599</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>2569.71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43527</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3955</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>1873</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>8559.61</v>
+      </c>
+      <c r="G4" s="16">
+        <f>SUM(F4,F5)</f>
+        <v>10942.44</v>
+      </c>
+      <c r="H4" s="16">
+        <v>10942.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>834</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>302</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>655.34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43344</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="C5" s="2">
         <v>2082</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>426</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1085</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>251</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>589.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43527</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3955</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>1873</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>8559.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2082</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>997</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E5" s="2">
         <v>2.39</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>2382.83</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43527</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="6">
-        <v>1551.56</v>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43643</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8000</v>
+      </c>
+      <c r="G6" s="16">
+        <f>SUM(F6,F7)</f>
+        <v>8000</v>
+      </c>
+      <c r="H6" s="16">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43811</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5906</v>
+      </c>
+      <c r="G8" s="16">
+        <f>SUM(F8,F9)</f>
+        <v>5906</v>
+      </c>
+      <c r="H8" s="16">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="16">
+        <f>SUM(G2:G9)</f>
+        <v>24848.440000000002</v>
+      </c>
+      <c r="H10" s="16">
+        <f>SUM(H2:H9)</f>
+        <v>24848.440000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43643</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="6">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43727</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F13" s="6">
-        <v>4510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43811</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F15" s="6">
-        <v>5906</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B10:E10"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/211ee.xlsx
+++ b/sputnik/personal/ee/211ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,33 +724,78 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14" t="s">
-        <v>11</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43997</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8000</v>
       </c>
       <c r="G10" s="16">
-        <f>SUM(G2:G9)</f>
-        <v>24848.440000000002</v>
+        <f>SUM(F10,F11)</f>
+        <v>8000</v>
       </c>
       <c r="H10" s="16">
-        <f>SUM(H2:H9)</f>
-        <v>24848.440000000002</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="16">
+        <f>SUM(G2:G11)</f>
+        <v>32848.44</v>
+      </c>
+      <c r="H12" s="16">
+        <f>SUM(H2:H11)</f>
+        <v>32848.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/211ee.xlsx
+++ b/sputnik/personal/ee/211ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -769,33 +769,78 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44130</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="16">
+        <f>SUM(F12,F13)</f>
+        <v>6000</v>
+      </c>
+      <c r="H12" s="16">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G14" s="16">
         <f>SUM(G2:G11)</f>
         <v>32848.44</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H14" s="16">
         <f>SUM(H2:H11)</f>
         <v>32848.44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/211ee.xlsx
+++ b/sputnik/personal/ee/211ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 16.12.2021\16.12.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 16.12.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -92,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -155,6 +161,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +492,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44130</v>
+        <v>44550</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -496,7 +507,7 @@
         <v>4.49</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F9" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
         <v>0</v>
       </c>
       <c r="G2" s="8">
@@ -529,8 +540,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43997</v>
+      <c r="A4" s="13">
+        <v>44536</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -545,15 +556,15 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G8" si="1">SUM(F4,F5)</f>
+        <f>SUM(F4,F5)</f>
         <v>0</v>
       </c>
       <c r="H4" s="8">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -571,15 +582,15 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43811</v>
+      <c r="A6" s="13">
+        <v>44519</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -594,19 +605,19 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(F6,F7)</f>
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>5906</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -620,15 +631,15 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43643</v>
+      <c r="A8" s="13">
+        <v>44515</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -640,18 +651,18 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F8:F11" si="3">D8*E8</f>
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(F8,F9)</f>
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>8000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -666,80 +677,350 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43527</v>
+      <c r="A10" s="13">
+        <v>44513</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
-        <v>3955</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="C10" s="15">
+        <v>15574</v>
+      </c>
+      <c r="D10" s="15">
+        <f>SUM(C10,-C20)</f>
+        <v>11619</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="3"/>
+        <v>57630.239999999998</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>73369.88</v>
+      </c>
+      <c r="H10" s="8">
+        <v>6000</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
-        <v>2082</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="12">
+        <v>7955</v>
+      </c>
+      <c r="D11" s="15">
+        <f>SUM(C11,-C21)</f>
+        <v>5873</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
+        <v>15739.640000000001</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="13">
+        <v>44130</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F19" si="4">D12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>6000</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14:G18" si="5">SUM(F14,F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>8000</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+      <c r="A16" s="4">
+        <v>43811</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43643</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43527</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14">
+        <v>3955</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2082</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
+        <f>SUM(G2:G21)</f>
+        <v>73369.88</v>
+      </c>
+      <c r="H22" s="8">
+        <f>SUM(H2:H21)</f>
+        <v>74906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8">
+        <f>SUM(H22,-G22)</f>
+        <v>1536.1199999999953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
